--- a/projeto-rpa.xlsx
+++ b/projeto-rpa.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos Rigel\OneDrive\Área de Trabalho\projeto-Recibo de pagamento Autônomo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6566091B-A90B-45DE-B058-D74A44777FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A94F837-2209-4324-AD4F-C1352D789CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66409243-D8B2-44B5-85FD-1B10A955F3C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="RPA-Set2018" sheetId="1" r:id="rId1"/>
+    <sheet name="RPA-Ano2018" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -24,9 +25,71 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>RELATÓRIO DE PAGAMENTO DE RPA</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>NOME</t>
+  </si>
+  <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>VALOR DO
+SERVIÇO</t>
+  </si>
+  <si>
+    <t>VALOR LÍQUIDO
+A PAGAR</t>
+  </si>
+  <si>
+    <t>Setembro</t>
+  </si>
+  <si>
+    <t>ANO</t>
+  </si>
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>Alber Einstein</t>
+  </si>
+  <si>
+    <t>George Lucas</t>
+  </si>
+  <si>
+    <t>Thomas Edison</t>
+  </si>
+  <si>
+    <t>TOTAL DO PERÍODO</t>
+  </si>
+  <si>
+    <t>Tabela de Alíquotas do INSS</t>
+  </si>
+  <si>
+    <t>Contribuição da empresa</t>
+  </si>
+  <si>
+    <t>INSS 
+DESCONTADO</t>
+  </si>
+  <si>
+    <t>INSS DA EMPRESA</t>
+  </si>
+  <si>
+    <t>Descontado do autônomo</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,16 +97,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -51,12 +142,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,9 +557,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E019C63-67B7-4506-ADFA-B341C994E290}">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="B2:H14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="15">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>43344</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>12357689000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>43344</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4">
+        <v>89012346956</v>
+      </c>
+      <c r="E6" s="3">
+        <v>955</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>43348</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>34567812389</v>
+      </c>
+      <c r="E7" s="3">
+        <v>345</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="134" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65ED9AB9-D413-44DE-A6E9-D96A46B8C0C2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/projeto-rpa.xlsx
+++ b/projeto-rpa.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos Rigel\OneDrive\Área de Trabalho\projeto-Recibo de pagamento Autônomo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A94F837-2209-4324-AD4F-C1352D789CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DFE2B7-BAEF-427A-B3CD-EE584398FE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66409243-D8B2-44B5-85FD-1B10A955F3C4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{66409243-D8B2-44B5-85FD-1B10A955F3C4}"/>
   </bookViews>
   <sheets>
     <sheet name="RPA-Set2018" sheetId="1" r:id="rId1"/>
-    <sheet name="RPA-Ano2018" sheetId="2" r:id="rId2"/>
+    <sheet name="RPA-Out2018" sheetId="3" r:id="rId2"/>
+    <sheet name="RPA-Nov2018" sheetId="4" r:id="rId3"/>
+    <sheet name="RPA-Dez2018" sheetId="5" r:id="rId4"/>
+    <sheet name="RPA-Ano2018" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
   <si>
     <t>RELATÓRIO DE PAGAMENTO DE RPA</t>
   </si>
@@ -83,13 +86,111 @@
   </si>
   <si>
     <t>Descontado do autônomo</t>
+  </si>
+  <si>
+    <t>MÊS</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>INSS DESCONTADO</t>
+  </si>
+  <si>
+    <t>RESUMO ANUAL DO PAGAMENTO DE RPA</t>
+  </si>
+  <si>
+    <t>VALOR DOS 
+SERVIÇOS</t>
+  </si>
+  <si>
+    <t>VALOR LÍQUIDO 
+PAGO</t>
+  </si>
+  <si>
+    <t>Outubro</t>
+  </si>
+  <si>
+    <t>Galileu Galilei</t>
+  </si>
+  <si>
+    <t>098.765.432-12</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>Isaac Newton</t>
+  </si>
+  <si>
+    <t>Novembro</t>
+  </si>
+  <si>
+    <t>Maria Curie</t>
+  </si>
+  <si>
+    <t>Ada Lovelace</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>Jane Austen</t>
+  </si>
+  <si>
+    <t>Dezembro</t>
+  </si>
+  <si>
+    <t>Albert Camus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosa Parks </t>
+  </si>
+  <si>
+    <t>Aristóteles</t>
+  </si>
+  <si>
+    <t>Confúcio</t>
+  </si>
+  <si>
+    <t>Mahatma Gandhi</t>
+  </si>
+  <si>
+    <t>Michelangelo</t>
+  </si>
+  <si>
+    <t>Amelia Earhart</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>Sigmund Freud</t>
+  </si>
+  <si>
+    <t>Marie Antoinette</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>Neil Armstrong</t>
+  </si>
+  <si>
+    <t>Andy Warhol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,18 +207,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="9" tint="-0.499984740745262"/>
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -134,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -149,19 +298,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -196,52 +332,166 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,150 +812,233 @@
   </sheetPr>
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="30" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="12" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="14" t="s">
+    <row r="3" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+    <row r="5" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
         <v>43344</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="16">
         <v>12357689000</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="10">
         <v>1200</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="F5" s="10">
+        <f>E5*$D$13</f>
+        <v>132</v>
+      </c>
+      <c r="G5" s="10">
+        <f>E5*$D$14</f>
+        <v>240</v>
+      </c>
+      <c r="H5" s="10">
+        <f>E5-F5</f>
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
         <v>43344</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="16">
         <v>89012346956</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="10">
         <v>955</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="F6" s="10">
+        <f t="shared" ref="F6:F9" si="0">E6*$D$13</f>
+        <v>105.05</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" ref="G6:G9" si="1">E6*$D$14</f>
+        <v>191</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" ref="H6:H9" si="2">E6-F6</f>
+        <v>849.95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
         <v>43348</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="16">
         <v>34567812389</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="10">
         <v>345</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>37.950000000000003</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="2"/>
+        <v>307.05</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12">
+        <f>SUM(E5:E9)</f>
+        <v>2500</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" ref="F10:H10" si="3">SUM(F5:F9)</f>
+        <v>275</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="3"/>
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D13">
+      <c r="C13" s="14"/>
+      <c r="D13" s="15">
         <v>0.11</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D14">
+      <c r="C14" s="14"/>
+      <c r="D14" s="15">
         <v>0.2</v>
       </c>
     </row>
@@ -721,15 +1054,1171 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65ED9AB9-D413-44DE-A6E9-D96A46B8C0C2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0DE93B-F9DC-4B2E-8A59-212DA64A88B2}">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="30" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="7" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="7"/>
+    <col min="13" max="13" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>43378</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="10">
+        <v>800</v>
+      </c>
+      <c r="F5" s="10">
+        <f>E5*$D$13</f>
+        <v>88</v>
+      </c>
+      <c r="G5" s="10">
+        <f>E5*$D$14</f>
+        <v>160</v>
+      </c>
+      <c r="H5" s="10">
+        <f>E5-F5</f>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <v>43384</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="16">
+        <v>13579134689</v>
+      </c>
+      <c r="E6" s="10">
+        <v>250</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" ref="F6:F9" si="0">E6*$D$13</f>
+        <v>27.5</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" ref="G6:G9" si="1">E6*$D$14</f>
+        <v>50</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" ref="H6:H9" si="2">E6-F6</f>
+        <v>222.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <v>43390</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="16">
+        <v>34215675623</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1345</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>147.94999999999999</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="1"/>
+        <v>269</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="2"/>
+        <v>1197.05</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12">
+        <f>SUM(E5:E9)</f>
+        <v>2395</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" ref="F10:H10" si="3">SUM(F5:F9)</f>
+        <v>263.45</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="3"/>
+        <v>479</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="3"/>
+        <v>2131.5500000000002</v>
+      </c>
+      <c r="M10" s="31"/>
+    </row>
+    <row r="12" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="134" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4695B29C-C558-432D-BC20-1C829AC08ABC}">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="B2:M14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="30" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="7" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="7"/>
+    <col min="13" max="13" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>43406</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="16">
+        <v>23456789012</v>
+      </c>
+      <c r="E5" s="10">
+        <v>780</v>
+      </c>
+      <c r="F5" s="10">
+        <f>E5*$D$13</f>
+        <v>85.8</v>
+      </c>
+      <c r="G5" s="10">
+        <f>E5*$D$14</f>
+        <v>156</v>
+      </c>
+      <c r="H5" s="10">
+        <f>E5-F5</f>
+        <v>694.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <v>43418</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="16">
+        <v>90123456789</v>
+      </c>
+      <c r="E6" s="10">
+        <v>740</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" ref="F6:F9" si="0">E6*$D$13</f>
+        <v>81.400000000000006</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" ref="G6:G9" si="1">E6*$D$14</f>
+        <v>148</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" ref="H6:H9" si="2">E6-F6</f>
+        <v>658.6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <v>43412</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="16">
+        <v>67890123456</v>
+      </c>
+      <c r="E7" s="10">
+        <v>990</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>108.9</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="2"/>
+        <v>881.1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <v>43432</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="16">
+        <v>55667788990</v>
+      </c>
+      <c r="E8" s="10">
+        <v>435</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>47.85</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="2"/>
+        <v>387.15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12">
+        <f>SUM(E5:E9)</f>
+        <v>2945</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" ref="F10:H10" si="3">SUM(F5:F9)</f>
+        <v>323.95000000000005</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="3"/>
+        <v>589</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="3"/>
+        <v>2621.0500000000002</v>
+      </c>
+      <c r="M10" s="31"/>
+    </row>
+    <row r="12" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="134" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3AF0B0-0E57-4249-A115-D870DF2F02B2}">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="B2:M22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="30" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="7" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="7"/>
+    <col min="13" max="13" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>43435</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="16">
+        <v>11122233344</v>
+      </c>
+      <c r="E5" s="10">
+        <v>950</v>
+      </c>
+      <c r="F5" s="10">
+        <f>E5*$D$21</f>
+        <v>104.5</v>
+      </c>
+      <c r="G5" s="10">
+        <f>E5*$D$22</f>
+        <v>190</v>
+      </c>
+      <c r="H5" s="10">
+        <f>E5-F5</f>
+        <v>845.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <v>43442</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="16">
+        <v>77788899900</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1125</v>
+      </c>
+      <c r="F6" s="10">
+        <f>E6*$D$21</f>
+        <v>123.75</v>
+      </c>
+      <c r="G6" s="10">
+        <f>E6*$D$22</f>
+        <v>225</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" ref="H6:H17" si="0">E6-F6</f>
+        <v>1001.25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <v>43444</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="16">
+        <v>88899900011</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1190</v>
+      </c>
+      <c r="F7" s="10">
+        <f>E7*$D$21</f>
+        <v>130.9</v>
+      </c>
+      <c r="G7" s="10">
+        <f>E7*$D$22</f>
+        <v>238</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="0"/>
+        <v>1059.0999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <v>43446</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="16">
+        <v>99900011122</v>
+      </c>
+      <c r="E8" s="10">
+        <v>960</v>
+      </c>
+      <c r="F8" s="10">
+        <f>E8*$D$21</f>
+        <v>105.6</v>
+      </c>
+      <c r="G8" s="10">
+        <f>E8*$D$22</f>
+        <v>192</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="0"/>
+        <v>854.4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
+        <v>43448</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="16">
+        <v>12312312300</v>
+      </c>
+      <c r="E9" s="10">
+        <v>880</v>
+      </c>
+      <c r="F9" s="10">
+        <f>E9*$D$21</f>
+        <v>96.8</v>
+      </c>
+      <c r="G9" s="10">
+        <f>E9*$D$22</f>
+        <v>176</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="0"/>
+        <v>783.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
+        <v>43449</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="16">
+        <v>32132132100</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1350</v>
+      </c>
+      <c r="F10" s="10">
+        <f>E10*$D$21</f>
+        <v>148.5</v>
+      </c>
+      <c r="G10" s="10">
+        <f>E10*$D$22</f>
+        <v>270</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="0"/>
+        <v>1201.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8">
+        <v>43451</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="16">
+        <v>45645645600</v>
+      </c>
+      <c r="E11" s="10">
+        <v>720</v>
+      </c>
+      <c r="F11" s="10">
+        <f>E11*$D$21</f>
+        <v>79.2</v>
+      </c>
+      <c r="G11" s="10">
+        <f>E11*$D$22</f>
+        <v>144</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="0"/>
+        <v>640.79999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
+        <v>43454</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="16">
+        <v>65465465400</v>
+      </c>
+      <c r="E12" s="10">
+        <v>890</v>
+      </c>
+      <c r="F12" s="10">
+        <f>E12*$D$21</f>
+        <v>97.9</v>
+      </c>
+      <c r="G12" s="10">
+        <f>E12*$D$22</f>
+        <v>178</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="0"/>
+        <v>792.1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>43456</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="16">
+        <v>78978978900</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1085</v>
+      </c>
+      <c r="F13" s="10">
+        <f>E13*$D$21</f>
+        <v>119.35</v>
+      </c>
+      <c r="G13" s="10">
+        <f>E13*$D$22</f>
+        <v>217</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="0"/>
+        <v>965.65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
+        <v>43458</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="16">
+        <v>98798798700</v>
+      </c>
+      <c r="E14" s="10">
+        <v>640</v>
+      </c>
+      <c r="F14" s="10">
+        <f>E14*$D$21</f>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="G14" s="10">
+        <f>E14*$D$22</f>
+        <v>128</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="0"/>
+        <v>569.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
+        <v>43461</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="16">
+        <v>11133355577</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1015</v>
+      </c>
+      <c r="F15" s="10">
+        <f>E15*$D$21</f>
+        <v>111.65</v>
+      </c>
+      <c r="G15" s="10">
+        <f>E15*$D$22</f>
+        <v>203</v>
+      </c>
+      <c r="H15" s="10">
+        <f t="shared" si="0"/>
+        <v>903.35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <v>43463</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="16">
+        <v>44466688800</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1320</v>
+      </c>
+      <c r="F16" s="10">
+        <f>E16*$D$21</f>
+        <v>145.19999999999999</v>
+      </c>
+      <c r="G16" s="10">
+        <f>E16*$D$22</f>
+        <v>264</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="0"/>
+        <v>1174.8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <v>43464</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="16">
+        <v>55577799911</v>
+      </c>
+      <c r="E17" s="10">
+        <v>740</v>
+      </c>
+      <c r="F17" s="10">
+        <f>E17*$D$21</f>
+        <v>81.400000000000006</v>
+      </c>
+      <c r="G17" s="10">
+        <f>E17*$D$22</f>
+        <v>148</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="0"/>
+        <v>658.6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12">
+        <f>SUM(E5:E17)</f>
+        <v>12865</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" ref="F18:H18" si="1">SUM(F5:F17)</f>
+        <v>1415.1500000000003</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="1"/>
+        <v>2573</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="1"/>
+        <v>11449.85</v>
+      </c>
+      <c r="M18" s="31"/>
+    </row>
+    <row r="20" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B20:D20"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="134" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65ED9AB9-D413-44DE-A6E9-D96A46B8C0C2}">
+  <dimension ref="B2:F11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="29">
+        <f>'RPA-Set2018'!E10</f>
+        <v>2500</v>
+      </c>
+      <c r="D6" s="29">
+        <f>'RPA-Set2018'!F10</f>
+        <v>275</v>
+      </c>
+      <c r="E6" s="29">
+        <f>'RPA-Set2018'!G10</f>
+        <v>500</v>
+      </c>
+      <c r="F6" s="29">
+        <f>'RPA-Set2018'!H10</f>
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="29">
+        <f>'RPA-Out2018'!E10</f>
+        <v>2395</v>
+      </c>
+      <c r="D7" s="29">
+        <f>'RPA-Out2018'!F10</f>
+        <v>263.45</v>
+      </c>
+      <c r="E7" s="29">
+        <f>'RPA-Out2018'!G10</f>
+        <v>479</v>
+      </c>
+      <c r="F7" s="29">
+        <f>'RPA-Out2018'!H10</f>
+        <v>2131.5500000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="29">
+        <f>'RPA-Nov2018'!E10</f>
+        <v>2945</v>
+      </c>
+      <c r="D8" s="29">
+        <f>'RPA-Nov2018'!F10</f>
+        <v>323.95000000000005</v>
+      </c>
+      <c r="E8" s="29">
+        <f>'RPA-Nov2018'!G10</f>
+        <v>589</v>
+      </c>
+      <c r="F8" s="29">
+        <f>'RPA-Nov2018'!H10</f>
+        <v>2621.0500000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="29">
+        <f>'RPA-Dez2018'!E18</f>
+        <v>12865</v>
+      </c>
+      <c r="D9" s="29">
+        <f>'RPA-Dez2018'!F18</f>
+        <v>1415.1500000000003</v>
+      </c>
+      <c r="E9" s="29">
+        <f>'RPA-Dez2018'!G18</f>
+        <v>2573</v>
+      </c>
+      <c r="F9" s="29">
+        <f>'RPA-Dez2018'!H18</f>
+        <v>11449.85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="30">
+        <f>SUM(C5:C10)</f>
+        <v>20705</v>
+      </c>
+      <c r="D11" s="30">
+        <f>SUM(D5:D10)</f>
+        <v>2277.5500000000002</v>
+      </c>
+      <c r="E11" s="30">
+        <f>SUM(E5:E10)</f>
+        <v>4141</v>
+      </c>
+      <c r="F11" s="30">
+        <f>SUM(F5:F10)</f>
+        <v>18427.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E3"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>